--- a/animations/fragment-skid-and-reverse-a.xlsx
+++ b/animations/fragment-skid-and-reverse-a.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA97D7B-1D3B-4FD1-A5A9-3B99960E2A44}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787E8965-15A8-BA46-A6DA-EFBD876A03D4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="465" windowWidth="49215" windowHeight="28335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="49220" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,20 +426,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN40"/>
+  <dimension ref="A1:BF27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="266" zoomScaleNormal="266" workbookViewId="0">
-      <selection activeCell="AP25" sqref="AP25"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="20" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="66" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="20" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="66" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -614,32 +614,8 @@
       <c r="BF1">
         <v>1</v>
       </c>
-      <c r="BG1">
-        <v>2</v>
-      </c>
-      <c r="BH1">
-        <v>3</v>
-      </c>
-      <c r="BI1">
-        <v>4</v>
-      </c>
-      <c r="BJ1">
-        <v>5</v>
-      </c>
-      <c r="BK1">
-        <v>6</v>
-      </c>
-      <c r="BL1">
-        <v>7</v>
-      </c>
-      <c r="BM1">
-        <v>8</v>
-      </c>
-      <c r="BN1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -668,7 +644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -700,7 +676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>1</v>
       </c>
@@ -732,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>1</v>
       </c>
@@ -764,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="H6">
         <v>1</v>
       </c>
@@ -802,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="I7">
         <v>1</v>
       </c>
@@ -852,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="J8">
         <v>1</v>
       </c>
@@ -917,7 +893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="O9">
         <v>1</v>
       </c>
@@ -988,7 +964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="T10">
         <v>1</v>
       </c>
@@ -1059,7 +1035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="AA11">
         <v>1</v>
       </c>
@@ -1118,7 +1094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="AH12">
         <v>1</v>
       </c>
@@ -1162,7 +1138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="AL13">
         <v>1</v>
       </c>
@@ -1197,7 +1173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="AO14">
         <v>1</v>
       </c>
@@ -1229,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="AO15" s="2"/>
       <c r="AP15" s="3"/>
       <c r="AS15">
@@ -1257,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="AO16" s="2"/>
       <c r="AP16" s="3"/>
       <c r="AT16">
@@ -1285,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="41:58" x14ac:dyDescent="0.25">
+    <row r="17" spans="41:58" x14ac:dyDescent="0.2">
       <c r="AO17" s="2"/>
       <c r="AP17" s="3"/>
       <c r="AU17" s="2">
@@ -1319,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="41:58" x14ac:dyDescent="0.25">
+    <row r="18" spans="41:58" x14ac:dyDescent="0.2">
       <c r="AO18" s="3"/>
       <c r="AP18" s="2"/>
       <c r="AU18" s="3"/>
@@ -1357,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="41:58" x14ac:dyDescent="0.25">
+    <row r="19" spans="41:58" x14ac:dyDescent="0.2">
       <c r="AO19" s="3"/>
       <c r="AP19" s="2"/>
       <c r="AU19" s="3"/>
@@ -1389,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="41:58" x14ac:dyDescent="0.25">
+    <row r="20" spans="41:58" x14ac:dyDescent="0.2">
       <c r="AO20" s="3"/>
       <c r="AP20" s="2"/>
       <c r="AU20">
@@ -1417,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="41:58" x14ac:dyDescent="0.25">
+    <row r="21" spans="41:58" x14ac:dyDescent="0.2">
       <c r="AO21" s="3"/>
       <c r="AP21" s="2"/>
       <c r="AS21">
@@ -1451,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="41:58" x14ac:dyDescent="0.25">
+    <row r="22" spans="41:58" x14ac:dyDescent="0.2">
       <c r="AO22" s="3"/>
       <c r="AP22" s="2"/>
       <c r="AS22">
@@ -1476,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="41:58" x14ac:dyDescent="0.25">
+    <row r="23" spans="41:58" x14ac:dyDescent="0.2">
       <c r="AP23" s="2"/>
       <c r="AS23">
         <v>1</v>
@@ -1497,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="41:58" x14ac:dyDescent="0.25">
+    <row r="24" spans="41:58" x14ac:dyDescent="0.2">
       <c r="AP24" s="2"/>
       <c r="AS24">
         <v>1</v>
@@ -1518,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="41:58" x14ac:dyDescent="0.25">
+    <row r="25" spans="41:58" x14ac:dyDescent="0.2">
       <c r="AP25" s="2"/>
       <c r="AS25">
         <v>1</v>
@@ -1539,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="41:58" x14ac:dyDescent="0.25">
+    <row r="26" spans="41:58" x14ac:dyDescent="0.2">
       <c r="AP26" s="2"/>
       <c r="AS26">
         <v>1</v>
@@ -1560,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="41:58" x14ac:dyDescent="0.25">
+    <row r="27" spans="41:58" x14ac:dyDescent="0.2">
       <c r="AP27" s="2"/>
       <c r="AS27">
         <v>1</v>
@@ -1579,110 +1555,6 @@
       </c>
       <c r="AX27">
         <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="41:58" x14ac:dyDescent="0.25">
-      <c r="AU28">
-        <v>8</v>
-      </c>
-      <c r="AV28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="41:58" x14ac:dyDescent="0.25">
-      <c r="AU29">
-        <v>8</v>
-      </c>
-      <c r="AV29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="41:58" x14ac:dyDescent="0.25">
-      <c r="AU30">
-        <v>8</v>
-      </c>
-      <c r="AV30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="41:58" x14ac:dyDescent="0.25">
-      <c r="AU31">
-        <v>8</v>
-      </c>
-      <c r="AV31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="41:58" x14ac:dyDescent="0.25">
-      <c r="AU32">
-        <v>8</v>
-      </c>
-      <c r="AV32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU33">
-        <v>8</v>
-      </c>
-      <c r="AV33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU34">
-        <v>8</v>
-      </c>
-      <c r="AV34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU35">
-        <v>8</v>
-      </c>
-      <c r="AV35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU36">
-        <v>8</v>
-      </c>
-      <c r="AV36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU37">
-        <v>8</v>
-      </c>
-      <c r="AV37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU38">
-        <v>8</v>
-      </c>
-      <c r="AV38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU39">
-        <v>8</v>
-      </c>
-      <c r="AV39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU40">
-        <v>8</v>
-      </c>
-      <c r="AV40">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
